--- a/public/serviceSampleFile.xlsx
+++ b/public/serviceSampleFile.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="65428" yWindow="65428" windowWidth="23256" windowHeight="12576" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Sr. No</t>
   </si>
@@ -35,23 +35,21 @@
     <t>GST (%)</t>
   </si>
   <si>
-    <t>CGST (%)</t>
-  </si>
-  <si>
-    <t>SGST (%)</t>
-  </si>
-  <si>
     <t>IGST (%)</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -60,9 +58,15 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,38 +88,32 @@
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
+      <alignment vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-      <protection/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -206,7 +204,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -501,25 +499,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7044a5ae-1d53-4d1a-ab21-1c061cdedf88}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{fe8475f6-3c43-4182-80c7-6a08825102ec}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="topLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="17.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="14.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="9.71428571428571" customWidth="1"/>
-    <col min="7" max="7" width="10.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="18.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="17.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="11.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="11.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="11.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="10.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75">
+    <row r="1" spans="1:7" ht="13.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,26 +538,9 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="J2" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>